--- a/source_analyses/nl/2019/11_area/11_area_insulation_typical_pv_and_heat.xlsx
+++ b/source_analyses/nl/2019/11_area/11_area_insulation_typical_pv_and_heat.xlsx
@@ -1,28 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/source_analyses/nl/2015/11_area/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/source_analyses/nl/2019/11_area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0279DF2D-22B7-674A-ABA4-10F5B0F3B2C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F58551-C167-2141-97DF-713C3EB79D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="26940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15220" yWindow="-28300" windowWidth="25600" windowHeight="27140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data - insulation and heat HH" sheetId="3" r:id="rId1"/>
-    <sheet name="Data - insulation buildings" sheetId="5" r:id="rId2"/>
-    <sheet name="Data - Solar PV" sheetId="2" r:id="rId3"/>
-    <sheet name="20160706_Vesta_Utiliteiten_BAG" sheetId="6" r:id="rId4"/>
-    <sheet name="20160525_Vesta_Utiliteiten_Nieu" sheetId="7" r:id="rId5"/>
+    <sheet name="Data - households (new)" sheetId="9" r:id="rId1"/>
+    <sheet name="Data - households (old)" sheetId="3" r:id="rId2"/>
+    <sheet name="Data - buildings (new)" sheetId="8" r:id="rId3"/>
+    <sheet name="Data - buildings (old)" sheetId="5" r:id="rId4"/>
+    <sheet name="Data - Solar PV" sheetId="2" r:id="rId5"/>
+    <sheet name="20160706_Vesta_Utiliteiten_BAG" sheetId="6" r:id="rId6"/>
+    <sheet name="20160525_Vesta_Utiliteiten_Nieu" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -32,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="186">
   <si>
     <t>m2</t>
   </si>
@@ -527,6 +540,69 @@
   </si>
   <si>
     <t>Aannames om warmtevraag te passen bij BAG categorien</t>
+  </si>
+  <si>
+    <t>nl2019</t>
+  </si>
+  <si>
+    <t>vbo_opp_m2</t>
+  </si>
+  <si>
+    <t>Functionele vraag ruimteverwarming (kWh)</t>
+  </si>
+  <si>
+    <t>Gemiddelde netto warmtevraag (kWh/m2)</t>
+  </si>
+  <si>
+    <t>Aantal gebouwen (#)</t>
+  </si>
+  <si>
+    <t>Gemiddelde oppervlakte (m2)</t>
+  </si>
+  <si>
+    <t>Woningtype ETM</t>
+  </si>
+  <si>
+    <t>Bouwjaarklasse ETM</t>
+  </si>
+  <si>
+    <t>Woningkenmerken/oppervlakte</t>
+  </si>
+  <si>
+    <t>Functionele vraag/ruimteverwarming</t>
+  </si>
+  <si>
+    <t>Functionele vraag ruimteverwarming (% van totaal)</t>
+  </si>
+  <si>
+    <t>Aantal woningen (#)</t>
+  </si>
+  <si>
+    <t>Appartement</t>
+  </si>
+  <si>
+    <t>1945 - 1964</t>
+  </si>
+  <si>
+    <t>1965 - 1984</t>
+  </si>
+  <si>
+    <t>1985 - 2004</t>
+  </si>
+  <si>
+    <t>&lt; 1945</t>
+  </si>
+  <si>
+    <t>&gt;= 2005</t>
+  </si>
+  <si>
+    <t>Hoekhuis</t>
+  </si>
+  <si>
+    <t>Rijtjeshuis</t>
+  </si>
+  <si>
+    <t>Vrijstaand huis</t>
   </si>
 </sst>
 </file>
@@ -924,7 +1000,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,13 +1008,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -977,9 +1051,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="19" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="16" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -999,15 +1071,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="3" applyBorder="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="2" builtinId="38"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{B02C3CB9-1D61-2743-99F2-E6011BE5A982}"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1768,6 +1839,567 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1682E34D-6A17-F44E-819A-5DB2D1821827}">
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2">
+        <v>27890053</v>
+      </c>
+      <c r="D2">
+        <v>13875609</v>
+      </c>
+      <c r="E2">
+        <v>4.7834967656665901</v>
+      </c>
+      <c r="F2">
+        <v>224.839811622247</v>
+      </c>
+      <c r="G2">
+        <v>389344</v>
+      </c>
+      <c r="H2">
+        <v>71.633447542533006</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3">
+        <v>56562618</v>
+      </c>
+      <c r="D3">
+        <v>27895908.899999999</v>
+      </c>
+      <c r="E3">
+        <v>9.6168744736522793</v>
+      </c>
+      <c r="F3">
+        <v>192.57421831315099</v>
+      </c>
+      <c r="G3">
+        <v>764435</v>
+      </c>
+      <c r="H3">
+        <v>73.992710956457998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4">
+        <v>49783756</v>
+      </c>
+      <c r="D4">
+        <v>22525728.199999999</v>
+      </c>
+      <c r="E4">
+        <v>7.7655509022331701</v>
+      </c>
+      <c r="F4">
+        <v>153.62506477483501</v>
+      </c>
+      <c r="G4">
+        <v>619871</v>
+      </c>
+      <c r="H4">
+        <v>80.313090949568505</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5">
+        <v>44415041</v>
+      </c>
+      <c r="D5">
+        <v>18276874.800000001</v>
+      </c>
+      <c r="E5">
+        <v>6.3007952654397501</v>
+      </c>
+      <c r="F5">
+        <v>308.05355490364002</v>
+      </c>
+      <c r="G5">
+        <v>540696</v>
+      </c>
+      <c r="H5">
+        <v>82.144201177741195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6">
+        <v>38792412</v>
+      </c>
+      <c r="D6">
+        <v>16921564.100000001</v>
+      </c>
+      <c r="E6">
+        <v>5.83356356772304</v>
+      </c>
+      <c r="F6">
+        <v>115.841779692446</v>
+      </c>
+      <c r="G6">
+        <v>461311</v>
+      </c>
+      <c r="H6">
+        <v>84.091669177626301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7">
+        <v>34068824</v>
+      </c>
+      <c r="D7">
+        <v>11215016.6</v>
+      </c>
+      <c r="E7">
+        <v>3.8662804373485198</v>
+      </c>
+      <c r="F7">
+        <v>242.45447287324799</v>
+      </c>
+      <c r="G7">
+        <v>298746</v>
+      </c>
+      <c r="H7">
+        <v>114.039431490296</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8">
+        <v>71096397</v>
+      </c>
+      <c r="D8">
+        <v>21281977.600000001</v>
+      </c>
+      <c r="E8">
+        <v>7.3367785887155597</v>
+      </c>
+      <c r="F8">
+        <v>201.898712438263</v>
+      </c>
+      <c r="G8">
+        <v>565691</v>
+      </c>
+      <c r="H8">
+        <v>125.680622459964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+      <c r="C9">
+        <v>51077222</v>
+      </c>
+      <c r="D9">
+        <v>14212817.4</v>
+      </c>
+      <c r="E9">
+        <v>4.8997464589777504</v>
+      </c>
+      <c r="F9">
+        <v>160.098673335097</v>
+      </c>
+      <c r="G9">
+        <v>379711</v>
+      </c>
+      <c r="H9">
+        <v>134.51604509745499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10">
+        <v>42319993</v>
+      </c>
+      <c r="D10">
+        <v>11319527.6</v>
+      </c>
+      <c r="E10">
+        <v>3.9023097049991602</v>
+      </c>
+      <c r="F10">
+        <v>295.36043295768701</v>
+      </c>
+      <c r="G10">
+        <v>303285</v>
+      </c>
+      <c r="H10">
+        <v>139.538694627165</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+      <c r="C11">
+        <v>24422284</v>
+      </c>
+      <c r="D11">
+        <v>6183838.5999999996</v>
+      </c>
+      <c r="E11">
+        <v>2.1318251287207799</v>
+      </c>
+      <c r="F11">
+        <v>116.35970427737399</v>
+      </c>
+      <c r="G11">
+        <v>165340</v>
+      </c>
+      <c r="H11">
+        <v>147.70947139228201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12">
+        <v>31376276</v>
+      </c>
+      <c r="D12">
+        <v>11531862.6</v>
+      </c>
+      <c r="E12">
+        <v>3.9755103685331199</v>
+      </c>
+      <c r="F12">
+        <v>215.90388706700401</v>
+      </c>
+      <c r="G12">
+        <v>309324</v>
+      </c>
+      <c r="H12">
+        <v>101.434987262546</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>184</v>
+      </c>
+      <c r="B13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13">
+        <v>102417945</v>
+      </c>
+      <c r="D13">
+        <v>32813377.399999999</v>
+      </c>
+      <c r="E13">
+        <v>11.3121294109323</v>
+      </c>
+      <c r="F13">
+        <v>186.57522341854701</v>
+      </c>
+      <c r="G13">
+        <v>875091</v>
+      </c>
+      <c r="H13">
+        <v>117.036908161551</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14">
+        <v>72145976</v>
+      </c>
+      <c r="D14">
+        <v>22257734.600000001</v>
+      </c>
+      <c r="E14">
+        <v>7.6731624154417597</v>
+      </c>
+      <c r="F14">
+        <v>153.63974069835299</v>
+      </c>
+      <c r="G14">
+        <v>600576</v>
+      </c>
+      <c r="H14">
+        <v>120.12797048167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>184</v>
+      </c>
+      <c r="B15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15">
+        <v>42194032</v>
+      </c>
+      <c r="D15">
+        <v>12437026.2999999</v>
+      </c>
+      <c r="E15">
+        <v>4.2875577627302901</v>
+      </c>
+      <c r="F15">
+        <v>268.04763028521501</v>
+      </c>
+      <c r="G15">
+        <v>342695</v>
+      </c>
+      <c r="H15">
+        <v>123.124154131224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16">
+        <v>30641851</v>
+      </c>
+      <c r="D16">
+        <v>8659821.1999999993</v>
+      </c>
+      <c r="E16">
+        <v>2.9853988175546702</v>
+      </c>
+      <c r="F16">
+        <v>114.07225152706</v>
+      </c>
+      <c r="G16">
+        <v>234949</v>
+      </c>
+      <c r="H16">
+        <v>130.419159051538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17">
+        <v>25685673</v>
+      </c>
+      <c r="D17">
+        <v>5431405.4000000004</v>
+      </c>
+      <c r="E17">
+        <v>1.87243025974024</v>
+      </c>
+      <c r="F17">
+        <v>279.99341227140002</v>
+      </c>
+      <c r="G17">
+        <v>143157</v>
+      </c>
+      <c r="H17">
+        <v>179.423101909092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C18">
+        <v>44537434</v>
+      </c>
+      <c r="D18">
+        <v>8708731.5</v>
+      </c>
+      <c r="E18">
+        <v>3.0022602224744701</v>
+      </c>
+      <c r="F18">
+        <v>217.62140537507599</v>
+      </c>
+      <c r="G18">
+        <v>231186</v>
+      </c>
+      <c r="H18">
+        <v>192.64762572128001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19">
+        <v>49426212</v>
+      </c>
+      <c r="D19">
+        <v>9562809.8000000007</v>
+      </c>
+      <c r="E19">
+        <v>3.29669636474945</v>
+      </c>
+      <c r="F19">
+        <v>150.64787708581301</v>
+      </c>
+      <c r="G19">
+        <v>252567</v>
+      </c>
+      <c r="H19">
+        <v>195.695447148677</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20">
+        <v>59345040</v>
+      </c>
+      <c r="D20">
+        <v>10828610.800000001</v>
+      </c>
+      <c r="E20">
+        <v>3.7330703638638298</v>
+      </c>
+      <c r="F20">
+        <v>304.23202075037898</v>
+      </c>
+      <c r="G20">
+        <v>285229</v>
+      </c>
+      <c r="H20">
+        <v>208.061031662278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C21">
+        <v>24571843</v>
+      </c>
+      <c r="D21">
+        <v>4132264.8</v>
+      </c>
+      <c r="E21">
+        <v>1.4245627205031399</v>
+      </c>
+      <c r="F21">
+        <v>116.288110063392</v>
+      </c>
+      <c r="G21">
+        <v>109695</v>
+      </c>
+      <c r="H21">
+        <v>224.001485938283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1BA330D-E811-2042-B9E6-56C80386C853}">
   <dimension ref="A2:J101"/>
   <sheetViews>
@@ -1802,7 +2434,7 @@
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>900</v>
       </c>
       <c r="C3" s="5">
@@ -1813,7 +2445,7 @@
         <f>E69</f>
         <v>2.7237553448275855E-2</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <f>1-(C3/D3)</f>
         <v>0.13</v>
       </c>
@@ -1822,7 +2454,7 @@
       <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>1530</v>
       </c>
       <c r="C4" s="5">
@@ -1833,7 +2465,7 @@
         <f t="shared" ref="D4:D7" si="1">E70</f>
         <v>4.4268507197802197E-2</v>
       </c>
-      <c r="E4" s="25">
+      <c r="E4" s="23">
         <f t="shared" ref="E4:E7" si="2">1-(C4/D4)</f>
         <v>8.9999999999999969E-2</v>
       </c>
@@ -1842,7 +2474,7 @@
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>2360</v>
       </c>
       <c r="C5" s="5">
@@ -1853,20 +2485,20 @@
         <f t="shared" si="1"/>
         <v>6.9817908539325846E-2</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="23">
         <f t="shared" si="2"/>
         <v>0.1100000000000001</v>
       </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>1790</v>
       </c>
       <c r="C6" s="5">
@@ -1877,20 +2509,20 @@
         <f t="shared" si="1"/>
         <v>5.4172467413793099E-2</v>
       </c>
-      <c r="E6" s="25">
+      <c r="E6" s="23">
         <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>1270</v>
       </c>
       <c r="C7" s="5">
@@ -1901,1290 +2533,1290 @@
         <f t="shared" si="1"/>
         <v>3.8435214310344822E-2</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="24">
         <f t="shared" si="2"/>
         <v>0.13</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="15">
+      <c r="B9" s="13">
         <f>31.65/1000000</f>
         <v>3.1649999999999997E-5</v>
       </c>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>0.83189999999999997</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="str">
+      <c r="A14" s="8" t="str">
         <f>"- Update average gas demand per housing type (temperature corrected)"</f>
         <v>- Update average gas demand per housing type (temperature corrected)</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="str">
+      <c r="A15" s="8" t="str">
         <f>"- Update % gas used for space heating"</f>
         <v>- Update % gas used for space heating</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="9"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="9"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
     </row>
     <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
     </row>
     <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="9"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
     </row>
     <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="9"/>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="9"/>
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
     </row>
     <row r="33" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
     </row>
     <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
     </row>
     <row r="36" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
     </row>
     <row r="37" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="11"/>
-      <c r="C37" s="23">
+      <c r="B37" s="9"/>
+      <c r="C37" s="21">
         <v>0.32</v>
       </c>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9" t="s">
+      <c r="D37" s="8"/>
+      <c r="E37" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
     </row>
     <row r="38" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="11"/>
-      <c r="C38" s="23">
+      <c r="B38" s="9"/>
+      <c r="C38" s="21">
         <v>0.23</v>
       </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
+      <c r="D38" s="8"/>
+      <c r="E38" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="23">
+      <c r="B39" s="9"/>
+      <c r="C39" s="21">
         <v>0.23</v>
       </c>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
     </row>
     <row r="40" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="23">
+      <c r="B40" s="9"/>
+      <c r="C40" s="21">
         <v>0.26</v>
       </c>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
     </row>
     <row r="41" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="23">
+      <c r="B41" s="9"/>
+      <c r="C41" s="21">
         <v>0.31</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
     </row>
     <row r="42" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="23">
+      <c r="B42" s="7"/>
+      <c r="C42" s="21">
         <v>0.67</v>
       </c>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
-      <c r="I42" s="9"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
     </row>
     <row r="43" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" s="8"/>
-      <c r="C43" s="23">
+      <c r="B43" s="7"/>
+      <c r="C43" s="21">
         <v>0.69</v>
       </c>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
     </row>
     <row r="44" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="8"/>
-      <c r="C44" s="23">
+      <c r="B44" s="7"/>
+      <c r="C44" s="21">
         <v>0.67</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
     </row>
     <row r="45" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="8"/>
-      <c r="C45" s="23">
+      <c r="B45" s="7"/>
+      <c r="C45" s="21">
         <v>0.69</v>
       </c>
-      <c r="D45" s="9"/>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
     </row>
     <row r="46" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="23">
+      <c r="B46" s="7"/>
+      <c r="C46" s="21">
         <v>0.69</v>
       </c>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
     </row>
     <row r="47" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="I48" s="9"/>
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
     </row>
     <row r="49" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="9"/>
-      <c r="B49" s="9" t="s">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="E49" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="9"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
     </row>
     <row r="50" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B50" s="12">
+      <c r="B50" s="10">
         <v>0.57969999999999999</v>
       </c>
-      <c r="C50" s="13">
+      <c r="C50" s="11">
         <f>1-B50</f>
         <v>0.42030000000000001</v>
       </c>
-      <c r="D50" s="9">
-        <v>0</v>
-      </c>
-      <c r="E50" s="14">
+      <c r="D50" s="8">
+        <v>0</v>
+      </c>
+      <c r="E50" s="12">
         <f>ROUND(C50*C37,2)</f>
         <v>0.13</v>
       </c>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
     </row>
     <row r="51" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="12">
+      <c r="B51" s="10">
         <v>0.59310000000000007</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="11">
         <f t="shared" ref="C51:C54" si="3">1-B51</f>
         <v>0.40689999999999993</v>
       </c>
-      <c r="D51" s="9">
-        <v>0</v>
-      </c>
-      <c r="E51" s="14">
+      <c r="D51" s="8">
+        <v>0</v>
+      </c>
+      <c r="E51" s="12">
         <f t="shared" ref="E51:E54" si="4">ROUND(C51*C38,2)</f>
         <v>0.09</v>
       </c>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
-      <c r="I51" s="9"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
     </row>
     <row r="52" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B52" s="12">
+      <c r="B52" s="10">
         <v>0.52</v>
       </c>
-      <c r="C52" s="13">
+      <c r="C52" s="11">
         <f t="shared" si="3"/>
         <v>0.48</v>
       </c>
-      <c r="D52" s="9">
-        <v>0</v>
-      </c>
-      <c r="E52" s="14">
+      <c r="D52" s="8">
+        <v>0</v>
+      </c>
+      <c r="E52" s="12">
         <f t="shared" si="4"/>
         <v>0.11</v>
       </c>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
-      <c r="I52" s="9"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
     </row>
     <row r="53" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="12">
+      <c r="B53" s="10">
         <v>0.51159999999999994</v>
       </c>
-      <c r="C53" s="13">
+      <c r="C53" s="11">
         <f t="shared" si="3"/>
         <v>0.48840000000000006</v>
       </c>
-      <c r="D53" s="9">
-        <v>0</v>
-      </c>
-      <c r="E53" s="14">
+      <c r="D53" s="8">
+        <v>0</v>
+      </c>
+      <c r="E53" s="12">
         <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="9"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
     </row>
     <row r="54" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="12">
+      <c r="B54" s="10">
         <v>0.5776</v>
       </c>
-      <c r="C54" s="13">
+      <c r="C54" s="11">
         <f t="shared" si="3"/>
         <v>0.4224</v>
       </c>
-      <c r="D54" s="9">
-        <v>0</v>
-      </c>
-      <c r="E54" s="14">
+      <c r="D54" s="8">
+        <v>0</v>
+      </c>
+      <c r="E54" s="12">
         <f t="shared" si="4"/>
         <v>0.13</v>
       </c>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="9"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="9"/>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
-      <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="9"/>
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
     </row>
     <row r="56" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="9"/>
-      <c r="B56" s="9"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
-      <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="9"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
     </row>
     <row r="57" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B57" s="9"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
-      <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="9"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
     </row>
     <row r="58" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B58" s="9"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
-      <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
-      <c r="I58" s="9"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
     </row>
     <row r="59" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B59" s="9"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="9"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
     </row>
     <row r="60" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="5"/>
-      <c r="B61" s="9"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="I61" s="9"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
     </row>
     <row r="62" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="9"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="I62" s="9"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
     </row>
     <row r="63" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B63" s="9"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="I63" s="9"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
     </row>
     <row r="64" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B65" s="9"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="8"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
     </row>
     <row r="66" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B66" s="9"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
-      <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
-      <c r="I66" s="9"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
     </row>
     <row r="67" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="5"/>
-      <c r="B67" s="9"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="I67" s="9"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="E67" s="8"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
     </row>
     <row r="68" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="A68" s="8"/>
       <c r="B68" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="D68" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="E68" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B69" s="17">
+      <c r="B69" s="15">
         <v>900</v>
       </c>
       <c r="C69" s="5">
         <f>B69*$B$76</f>
         <v>2.8484999999999996E-2</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="8">
         <f>C69*$B$77</f>
         <v>2.3696671499999995E-2</v>
       </c>
-      <c r="E69" s="18">
+      <c r="E69" s="16">
         <f>D69/(1-E50)</f>
         <v>2.7237553448275855E-2</v>
       </c>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="I69" s="9"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
     </row>
     <row r="70" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B70" s="17">
+      <c r="B70" s="15">
         <v>1530</v>
       </c>
       <c r="C70" s="5">
         <f t="shared" ref="C70:C73" si="5">B70*$B$76</f>
         <v>4.8424499999999995E-2</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="8">
         <f t="shared" ref="D70:D73" si="6">C70*$B$77</f>
         <v>4.0284341549999998E-2</v>
       </c>
-      <c r="E70" s="19">
+      <c r="E70" s="17">
         <f>D70/(1-E51)</f>
         <v>4.4268507197802197E-2</v>
       </c>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="I70" s="9"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
     </row>
     <row r="71" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B71" s="17">
+      <c r="B71" s="15">
         <v>2360</v>
       </c>
       <c r="C71" s="5">
         <f t="shared" si="5"/>
         <v>7.4693999999999997E-2</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="8">
         <f t="shared" si="6"/>
         <v>6.2137938599999998E-2</v>
       </c>
-      <c r="E71" s="19">
+      <c r="E71" s="17">
         <f>D71/(1-E52)</f>
         <v>6.9817908539325846E-2</v>
       </c>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B72" s="17">
+      <c r="B72" s="15">
         <v>1790</v>
       </c>
       <c r="C72" s="5">
         <f t="shared" si="5"/>
         <v>5.6653499999999996E-2</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="8">
         <f t="shared" si="6"/>
         <v>4.7130046649999993E-2</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="17">
         <f>D72/(1-E53)</f>
         <v>5.4172467413793099E-2</v>
       </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="I72" s="9"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
     </row>
     <row r="73" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B73" s="17">
+      <c r="B73" s="15">
         <v>1270</v>
       </c>
       <c r="C73" s="5">
         <f t="shared" si="5"/>
         <v>4.0195499999999995E-2</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="8">
         <f t="shared" si="6"/>
         <v>3.3438636449999996E-2</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="18">
         <f>D73/(1-E54)</f>
         <v>3.8435214310344822E-2</v>
       </c>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
-      <c r="I73" s="9"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
     </row>
     <row r="74" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="5"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
     </row>
     <row r="75" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="9"/>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9" t="s">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D75" s="9"/>
-      <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
-      <c r="I75" s="9"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B76" s="15">
+      <c r="B76" s="13">
         <f>31.65/1000000</f>
         <v>3.1649999999999997E-5</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
-      <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
-      <c r="I76" s="9"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
     </row>
     <row r="77" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B77" s="16">
+      <c r="B77" s="14">
         <v>0.83189999999999997</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="D77" s="9"/>
-      <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="I77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A78" s="9"/>
-      <c r="B78" s="9"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="I78" s="9"/>
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
     </row>
     <row r="79" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A79" s="9"/>
-      <c r="B79" s="9"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="I79" s="9"/>
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
     </row>
     <row r="80" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A80" s="9"/>
-      <c r="B80" s="9"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="I80" s="9"/>
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
     </row>
     <row r="81" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A81" s="9"/>
-      <c r="B81" s="9"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="I81" s="9"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
     </row>
     <row r="82" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A82" s="9"/>
-      <c r="B82" s="9"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="I82" s="9"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
     </row>
     <row r="83" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A83" s="9"/>
-      <c r="B83" s="9"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="I83" s="9"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
     </row>
     <row r="84" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9"/>
-      <c r="D84" s="9"/>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A85" s="9"/>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
-      <c r="I85" s="9"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
     </row>
     <row r="86" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A86" s="9"/>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
-      <c r="I86" s="9"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
     </row>
     <row r="87" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A87" s="9"/>
-      <c r="B87" s="9"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
-      <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
-      <c r="I87" s="9"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A88" s="9"/>
-      <c r="B88" s="9"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
-      <c r="I88" s="9"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
     </row>
     <row r="89" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A89" s="9"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="I89" s="9"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
     </row>
     <row r="90" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A90" s="9"/>
-      <c r="B90" s="9"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="I90" s="9"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="I91" s="9"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
     </row>
     <row r="92" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A92" s="9"/>
-      <c r="B92" s="9"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="I92" s="9"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
     </row>
     <row r="93" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A93" s="9"/>
-      <c r="B93" s="9"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="I93" s="9"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
     </row>
     <row r="94" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A94" s="9"/>
-      <c r="B94" s="9"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="I94" s="9"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
     </row>
     <row r="95" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A95" s="9"/>
-      <c r="B95" s="9"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="I95" s="9"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A96" s="9"/>
-      <c r="B96" s="9"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
-      <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
-      <c r="I96" s="9"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A97" s="9"/>
-      <c r="B97" s="9"/>
-      <c r="C97" s="9"/>
-      <c r="D97" s="9"/>
-      <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
-      <c r="I97" s="9"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A98" s="9"/>
-      <c r="B98" s="9"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
-      <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
-      <c r="I98" s="9"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A99" s="9"/>
-      <c r="B99" s="9"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
-      <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
-      <c r="I99" s="9"/>
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="9"/>
-      <c r="B100" s="9"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
-      <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
-      <c r="I100" s="9"/>
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="9"/>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
-      <c r="I101" s="9"/>
+      <c r="A101" s="8"/>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="E101" s="8"/>
+      <c r="F101" s="8"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
     </row>
   </sheetData>
   <dataValidations disablePrompts="1" count="1">
@@ -3197,1184 +3829,1246 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA75A014-DE88-B14B-8D8F-6EBDB4688A66}">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2">
+        <v>267934399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B3">
+        <v>65261051894</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4">
+        <v>243.57100893939301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <v>912497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6">
+        <v>293.627703981492</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99718219-8EC2-A944-9A23-2A88731F700A}">
   <dimension ref="A24:L97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
+    <sheetView zoomScale="109" zoomScaleNormal="109" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" style="27" customWidth="1"/>
-    <col min="2" max="2" width="20.5" style="27" customWidth="1"/>
-    <col min="3" max="4" width="20.83203125" style="27" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="27" customWidth="1"/>
-    <col min="7" max="7" width="28.6640625" style="27" customWidth="1"/>
-    <col min="8" max="9" width="25.83203125" style="27" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" style="27" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" style="27" customWidth="1"/>
-    <col min="12" max="12" width="24.1640625" style="27" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" style="27" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="27"/>
+    <col min="1" max="1" width="31.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="20.5" style="25" customWidth="1"/>
+    <col min="3" max="4" width="20.83203125" style="25" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="25" customWidth="1"/>
+    <col min="7" max="7" width="28.6640625" style="25" customWidth="1"/>
+    <col min="8" max="9" width="25.83203125" style="25" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" style="25" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="25" customWidth="1"/>
+    <col min="12" max="12" width="24.1640625" style="25" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="25" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="25"/>
   </cols>
   <sheetData>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="H24" s="42"/>
-      <c r="J24" s="43" t="s">
+      <c r="H24" s="40"/>
+      <c r="J24" s="41" t="s">
         <v>77</v>
       </c>
-      <c r="K24" s="44" t="s">
+      <c r="K24" s="42" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="45"/>
-      <c r="C25" s="41" t="s">
+      <c r="B25" s="43"/>
+      <c r="C25" s="39" t="s">
         <v>144</v>
       </c>
-      <c r="D25" s="41" t="s">
+      <c r="D25" s="39" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="41" t="s">
+      <c r="E25" s="39" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="J25" s="43">
+      <c r="F25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="J25" s="41">
         <f>SUM(J27:J35)</f>
         <v>0.3252535859965181</v>
       </c>
-      <c r="K25" s="43">
+      <c r="K25" s="41">
         <f>SUM(K27:K35)</f>
         <v>0.77630569688612194</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="44" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="47" t="s">
+      <c r="D26" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="F26" s="49" t="s">
+      <c r="F26" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="H26" s="49" t="s">
+      <c r="H26" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="J26" s="51"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="41"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="39"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="B27" s="52">
+      <c r="B27" s="48">
         <v>0.98134403999999997</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="34">
         <v>0.77058157699999996</v>
       </c>
-      <c r="D27" s="53">
+      <c r="D27" s="49">
         <v>0.50900000000000001</v>
       </c>
-      <c r="E27" s="38">
+      <c r="E27" s="36">
         <v>0.14519876000000001</v>
       </c>
-      <c r="F27" s="52">
+      <c r="F27" s="48">
         <f t="shared" ref="F27:G36" si="0">(B27-C27)/B27</f>
         <v>0.21476918838779518</v>
       </c>
-      <c r="G27" s="51">
+      <c r="G27" s="47">
         <f>(C27-D27)/C27</f>
         <v>0.33945994143589547</v>
       </c>
-      <c r="H27" s="52">
+      <c r="H27" s="48">
         <f t="shared" ref="H27:H35" si="1">(B27-E27)/B27</f>
         <v>0.85204092134701304</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="47">
         <f>(C27-E27)/C27</f>
         <v>0.81157250012998949</v>
       </c>
-      <c r="J27" s="51">
+      <c r="J27" s="47">
         <f t="shared" ref="J27:J34" si="2">G27*I54</f>
         <v>5.0918991215384318E-2</v>
       </c>
-      <c r="K27" s="51">
+      <c r="K27" s="47">
         <f t="shared" ref="K27:K35" si="3">H27*I54</f>
         <v>0.12780613820205194</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="52">
+      <c r="B28" s="48">
         <v>0.49457752599999999</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="34">
         <v>0.39202261900000002</v>
       </c>
-      <c r="D28" s="53">
+      <c r="D28" s="49">
         <v>0.377</v>
       </c>
-      <c r="E28" s="38">
+      <c r="E28" s="36">
         <v>0.11855899</v>
       </c>
-      <c r="F28" s="52">
+      <c r="F28" s="48">
         <f t="shared" si="0"/>
         <v>0.20735860731366912</v>
       </c>
-      <c r="G28" s="51">
+      <c r="G28" s="47">
         <f t="shared" si="0"/>
         <v>3.8320796484449825E-2</v>
       </c>
-      <c r="H28" s="52">
+      <c r="H28" s="48">
         <f t="shared" si="1"/>
         <v>0.76028229394313407</v>
       </c>
-      <c r="I28" s="51">
+      <c r="I28" s="47">
         <f t="shared" ref="I28:I35" si="4">(C28-E28)/C28</f>
         <v>0.69757104755223309</v>
       </c>
-      <c r="J28" s="51">
+      <c r="J28" s="47">
         <f t="shared" si="2"/>
         <v>3.8320796484449826E-3</v>
       </c>
-      <c r="K28" s="51">
+      <c r="K28" s="47">
         <f t="shared" si="3"/>
         <v>7.6028229394313418E-2</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="52">
+      <c r="B29" s="48">
         <v>1.116715465</v>
       </c>
-      <c r="C29" s="36">
+      <c r="C29" s="34">
         <v>0.81876906599999999</v>
       </c>
-      <c r="D29" s="53">
+      <c r="D29" s="49">
         <f>(0.905+0.553)/2</f>
         <v>0.72900000000000009</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="36">
         <v>0.2160096</v>
       </c>
-      <c r="F29" s="52">
+      <c r="F29" s="48">
         <f t="shared" si="0"/>
         <v>0.26680601132357379</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="47">
         <f t="shared" si="0"/>
         <v>0.10963905419455588</v>
       </c>
-      <c r="H29" s="52">
+      <c r="H29" s="48">
         <f t="shared" si="1"/>
         <v>0.80656702018539694</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="47">
         <f t="shared" si="4"/>
         <v>0.7361776244731747</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="47">
         <f t="shared" si="2"/>
         <v>9.867514877510029E-3</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="47">
         <f t="shared" si="3"/>
         <v>7.2591031816685719E-2</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B30" s="52">
+      <c r="B30" s="48">
         <v>0.72398611499999999</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="34">
         <v>0.58288601500000004</v>
       </c>
-      <c r="D30" s="53">
+      <c r="D30" s="49">
         <v>0.54600000000000004</v>
       </c>
-      <c r="E30" s="38">
+      <c r="E30" s="36">
         <v>0.23712773000000001</v>
       </c>
-      <c r="F30" s="52">
+      <c r="F30" s="48">
         <f t="shared" si="0"/>
         <v>0.19489337858364861</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="47">
         <f t="shared" si="0"/>
         <v>6.3281694963980215E-2</v>
       </c>
-      <c r="H30" s="52">
+      <c r="H30" s="48">
         <f t="shared" si="1"/>
         <v>0.67246922960670319</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="47">
         <f t="shared" si="4"/>
         <v>0.59318336021494711</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="47">
         <f t="shared" si="2"/>
         <v>5.6953525467582193E-3</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="47">
         <f t="shared" si="3"/>
         <v>6.0522230664603285E-2</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="52">
+      <c r="B31" s="48">
         <v>0.51745592299999998</v>
       </c>
-      <c r="C31" s="36">
+      <c r="C31" s="34">
         <v>0.39044105699999998</v>
       </c>
-      <c r="D31" s="53">
+      <c r="D31" s="49">
         <v>0.30099999999999999</v>
       </c>
-      <c r="E31" s="38">
+      <c r="E31" s="36">
         <v>0.10760359</v>
       </c>
-      <c r="F31" s="52">
+      <c r="F31" s="48">
         <f t="shared" si="0"/>
         <v>0.24546026116315225</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="47">
         <f t="shared" si="0"/>
         <v>0.22907697691229228</v>
       </c>
-      <c r="H31" s="52">
+      <c r="H31" s="48">
         <f t="shared" si="1"/>
         <v>0.79205264599899072</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="47">
         <f t="shared" si="4"/>
         <v>0.72440503356182651</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="47">
         <f t="shared" si="2"/>
         <v>1.8326158152983382E-2</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="47">
         <f t="shared" si="3"/>
         <v>6.3364211679919263E-2</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="B32" s="52">
+      <c r="B32" s="48">
         <v>0.415427096</v>
       </c>
-      <c r="C32" s="36">
+      <c r="C32" s="34">
         <v>0.32311028400000003</v>
       </c>
-      <c r="D32" s="53">
+      <c r="D32" s="49">
         <v>0.14499999999999999</v>
       </c>
-      <c r="E32" s="38">
+      <c r="E32" s="36">
         <v>7.0784399999999997E-2</v>
       </c>
-      <c r="F32" s="52">
+      <c r="F32" s="48">
         <f t="shared" si="0"/>
         <v>0.22222145086077863</v>
       </c>
-      <c r="G32" s="51">
+      <c r="G32" s="47">
         <f t="shared" si="0"/>
         <v>0.55123681547691006</v>
       </c>
-      <c r="H32" s="52">
+      <c r="H32" s="48">
         <f t="shared" si="1"/>
         <v>0.82961053652600447</v>
       </c>
-      <c r="I32" s="51">
+      <c r="I32" s="47">
         <f t="shared" si="4"/>
         <v>0.78092804994099163</v>
       </c>
-      <c r="J32" s="51">
+      <c r="J32" s="47">
         <f t="shared" si="2"/>
         <v>0.21498235803599494</v>
       </c>
-      <c r="K32" s="51">
+      <c r="K32" s="47">
         <f t="shared" si="3"/>
         <v>0.32354810924514177</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="54">
+      <c r="B33" s="50">
         <v>0.56079546800000002</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="37">
         <v>0.80625868599999995</v>
       </c>
-      <c r="D33" s="53">
+      <c r="D33" s="49">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E33" s="38">
+      <c r="E33" s="36">
         <v>3.7856840000000003E-2</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="50">
         <f t="shared" si="0"/>
         <v>-0.43770542382485861</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="47">
         <f t="shared" si="0"/>
         <v>0.66263929341407424</v>
       </c>
-      <c r="H33" s="52">
+      <c r="H33" s="48">
         <f t="shared" si="1"/>
         <v>0.93249439027206971</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="47">
         <f t="shared" si="4"/>
         <v>0.95304628569297667</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="47">
         <f t="shared" si="2"/>
         <v>6.6263929341407422E-3</v>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="47">
         <f t="shared" si="3"/>
         <v>9.3249439027206973E-3</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="B34" s="52">
+      <c r="B34" s="48">
         <v>0.72479149200000004</v>
       </c>
-      <c r="C34" s="36">
+      <c r="C34" s="34">
         <v>0.54417190699999995</v>
       </c>
-      <c r="D34" s="53">
+      <c r="D34" s="49">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E34" s="38">
+      <c r="E34" s="36">
         <v>0.16822245999999999</v>
       </c>
-      <c r="F34" s="52">
+      <c r="F34" s="48">
         <f t="shared" si="0"/>
         <v>0.24920213191465013</v>
       </c>
-      <c r="G34" s="51">
+      <c r="G34" s="47">
         <f t="shared" si="0"/>
         <v>0.50015795284338327</v>
       </c>
-      <c r="H34" s="52">
+      <c r="H34" s="48">
         <f t="shared" si="1"/>
         <v>0.76790227002278344</v>
       </c>
-      <c r="I34" s="51">
+      <c r="I34" s="47">
         <f t="shared" si="4"/>
         <v>0.69086522505837489</v>
       </c>
-      <c r="J34" s="51">
+      <c r="J34" s="47">
         <f t="shared" si="2"/>
         <v>1.5004738585301498E-2</v>
       </c>
-      <c r="K34" s="51">
+      <c r="K34" s="47">
         <f t="shared" si="3"/>
         <v>2.3037068100683504E-2</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="B35" s="52">
+      <c r="B35" s="48">
         <v>0.227744373</v>
       </c>
-      <c r="C35" s="36">
+      <c r="C35" s="34">
         <v>0.165521952</v>
       </c>
-      <c r="D35" s="53">
+      <c r="D35" s="49">
         <v>0.27200000000000002</v>
       </c>
-      <c r="E35" s="38">
+      <c r="E35" s="36">
         <v>0.15151175</v>
       </c>
-      <c r="F35" s="52">
+      <c r="F35" s="48">
         <f t="shared" si="0"/>
         <v>0.27321167228136084</v>
       </c>
-      <c r="G35" s="55">
+      <c r="G35" s="51">
         <f t="shared" si="0"/>
         <v>-0.64328656539768225</v>
       </c>
-      <c r="H35" s="52">
+      <c r="H35" s="48">
         <f t="shared" si="1"/>
         <v>0.33472889800003974</v>
       </c>
-      <c r="I35" s="51">
+      <c r="I35" s="47">
         <f t="shared" si="4"/>
         <v>8.4642561489366677E-2</v>
       </c>
-      <c r="J35" s="51" t="s">
+      <c r="J35" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K35" s="51">
+      <c r="K35" s="47">
         <f t="shared" si="3"/>
         <v>2.0083733880002383E-2</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="52">
+      <c r="B36" s="48">
         <v>1.174642006</v>
       </c>
-      <c r="C36" s="36">
+      <c r="C36" s="34">
         <v>0.79722959800000004</v>
       </c>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="52" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="37" t="s">
+      <c r="E36" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="52">
+      <c r="F36" s="48">
         <f t="shared" si="0"/>
         <v>0.32129994166069348</v>
       </c>
-      <c r="G36" s="51" t="s">
+      <c r="G36" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="52" t="s">
+      <c r="H36" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="I36" s="51" t="s">
+      <c r="I36" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="J36" s="51" t="s">
+      <c r="J36" s="47" t="s">
         <v>69</v>
       </c>
-      <c r="K36" s="51" t="s">
+      <c r="K36" s="47" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="H37" s="42"/>
+      <c r="B37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="H37" s="40"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="B38" s="42">
+      <c r="B38" s="40">
         <f>SUM(B39:B47)</f>
         <v>0.60675190389999989</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="53">
         <f t="shared" ref="C38:E38" si="5">SUM(C39:C47)</f>
         <v>0.47250581225000005</v>
       </c>
-      <c r="D38" s="57">
+      <c r="D38" s="53">
         <f t="shared" si="5"/>
         <v>0.33662999999999998</v>
       </c>
-      <c r="E38" s="57">
+      <c r="E38" s="53">
         <f t="shared" si="5"/>
         <v>0.12514822309999998</v>
       </c>
-      <c r="F38" s="58">
+      <c r="F38" s="54">
         <f>(B38-C38)/B38</f>
         <v>0.22125368010732313</v>
       </c>
-      <c r="G38" s="59">
+      <c r="G38" s="55">
         <f>(C38-D38)/C38</f>
         <v>0.28756431926832887</v>
       </c>
-      <c r="H38" s="58">
+      <c r="H38" s="54">
         <f>(B38-E38)/B38</f>
         <v>0.79374069978917461</v>
       </c>
-      <c r="I38" s="59">
+      <c r="I38" s="55">
         <f>(C38-E38)/C38</f>
         <v>0.73513929383415744</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B39" s="42">
+      <c r="B39" s="40">
         <f t="shared" ref="B39:D47" si="6">B27*$I54</f>
         <v>0.14720160599999998</v>
       </c>
-      <c r="C39" s="42">
+      <c r="C39" s="40">
         <f>C27*$I54</f>
         <v>0.11558723654999999</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="40">
         <f>D27*$I54</f>
         <v>7.6350000000000001E-2</v>
       </c>
-      <c r="E39" s="42">
+      <c r="E39" s="40">
         <f t="shared" ref="E39:E47" si="7">E27*$I54</f>
         <v>2.1779814000000002E-2</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="H39" s="42"/>
+      <c r="F39" s="40"/>
+      <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B40" s="42">
+      <c r="B40" s="40">
         <f t="shared" si="6"/>
         <v>4.9457752600000002E-2</v>
       </c>
-      <c r="C40" s="42">
+      <c r="C40" s="40">
         <f t="shared" si="6"/>
         <v>3.9202261900000007E-2</v>
       </c>
-      <c r="D40" s="42">
+      <c r="D40" s="40">
         <f t="shared" si="6"/>
         <v>3.7700000000000004E-2</v>
       </c>
-      <c r="E40" s="42">
+      <c r="E40" s="40">
         <f t="shared" si="7"/>
         <v>1.1855899000000001E-2</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="K40" s="60"/>
+      <c r="F40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="K40" s="56"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B41" s="42">
+      <c r="B41" s="40">
         <f t="shared" si="6"/>
         <v>0.10050439185</v>
       </c>
-      <c r="C41" s="42">
+      <c r="C41" s="40">
         <f t="shared" si="6"/>
         <v>7.3689215939999997E-2</v>
       </c>
-      <c r="D41" s="42">
+      <c r="D41" s="40">
         <f t="shared" si="6"/>
         <v>6.5610000000000002E-2</v>
       </c>
-      <c r="E41" s="42">
+      <c r="E41" s="40">
         <f t="shared" si="7"/>
         <v>1.9440863999999999E-2</v>
       </c>
-      <c r="F41" s="42"/>
+      <c r="F41" s="40"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B42" s="42">
+      <c r="B42" s="40">
         <f t="shared" si="6"/>
         <v>6.5158750350000003E-2</v>
       </c>
-      <c r="C42" s="42">
+      <c r="C42" s="40">
         <f t="shared" si="6"/>
         <v>5.2459741349999998E-2</v>
       </c>
-      <c r="D42" s="42">
+      <c r="D42" s="40">
         <f t="shared" si="6"/>
         <v>4.9140000000000003E-2</v>
       </c>
-      <c r="E42" s="42">
+      <c r="E42" s="40">
         <f t="shared" si="7"/>
         <v>2.1341495700000001E-2</v>
       </c>
-      <c r="F42" s="42"/>
+      <c r="F42" s="40"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B43" s="42">
+      <c r="B43" s="40">
         <f t="shared" si="6"/>
         <v>4.1396473839999996E-2</v>
       </c>
-      <c r="C43" s="42">
+      <c r="C43" s="40">
         <f t="shared" si="6"/>
         <v>3.123528456E-2</v>
       </c>
-      <c r="D43" s="42">
+      <c r="D43" s="40">
         <f t="shared" si="6"/>
         <v>2.4080000000000001E-2</v>
       </c>
-      <c r="E43" s="42">
+      <c r="E43" s="40">
         <f t="shared" si="7"/>
         <v>8.6082872000000001E-3</v>
       </c>
-      <c r="F43" s="42"/>
+      <c r="F43" s="40"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B44" s="42">
+      <c r="B44" s="40">
         <f t="shared" si="6"/>
         <v>0.16201656744000001</v>
       </c>
-      <c r="C44" s="42">
+      <c r="C44" s="40">
         <f t="shared" si="6"/>
         <v>0.12601301076000002</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="40">
         <f t="shared" si="6"/>
         <v>5.6549999999999996E-2</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="40">
         <f t="shared" si="7"/>
         <v>2.7605916000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B45" s="42">
+      <c r="B45" s="40">
         <f t="shared" si="6"/>
         <v>5.6079546799999999E-3</v>
       </c>
-      <c r="C45" s="42">
+      <c r="C45" s="40">
         <f t="shared" si="6"/>
         <v>8.0625868600000001E-3</v>
       </c>
-      <c r="D45" s="42">
+      <c r="D45" s="40">
         <f t="shared" si="6"/>
         <v>2.7200000000000002E-3</v>
       </c>
-      <c r="E45" s="42">
+      <c r="E45" s="40">
         <f t="shared" si="7"/>
         <v>3.7856840000000005E-4</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B46" s="42">
+      <c r="B46" s="40">
         <f t="shared" si="6"/>
         <v>2.1743744759999999E-2</v>
       </c>
-      <c r="C46" s="42">
+      <c r="C46" s="40">
         <f t="shared" si="6"/>
         <v>1.6325157209999996E-2</v>
       </c>
-      <c r="D46" s="42">
+      <c r="D46" s="40">
         <f t="shared" si="6"/>
         <v>8.1600000000000006E-3</v>
       </c>
-      <c r="E46" s="42">
+      <c r="E46" s="40">
         <f t="shared" si="7"/>
         <v>5.0466737999999992E-3</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B47" s="42">
+      <c r="B47" s="40">
         <f t="shared" si="6"/>
         <v>1.366466238E-2</v>
       </c>
-      <c r="C47" s="42">
+      <c r="C47" s="40">
         <f t="shared" si="6"/>
         <v>9.9313171199999998E-3</v>
       </c>
-      <c r="D47" s="42">
+      <c r="D47" s="40">
         <f t="shared" si="6"/>
         <v>1.6320000000000001E-2</v>
       </c>
-      <c r="E47" s="42">
+      <c r="E47" s="40">
         <f t="shared" si="7"/>
         <v>9.0907049999999993E-3</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A51" s="27" t="s">
+      <c r="A51" s="25" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F52" s="35" t="s">
+      <c r="F52" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="G52" s="35"/>
+      <c r="G52" s="33"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F53" s="33" t="s">
+      <c r="F53" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G53" s="34"/>
-      <c r="H53" s="33" t="s">
+      <c r="G53" s="32"/>
+      <c r="H53" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="I53" s="32"/>
-      <c r="J53" s="61" t="s">
+      <c r="I53" s="30"/>
+      <c r="J53" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="K53" s="62"/>
+      <c r="K53" s="58"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F54" s="28" t="s">
+      <c r="F54" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="29">
         <v>0.39</v>
       </c>
-      <c r="H54" s="28" t="s">
+      <c r="H54" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="I54" s="31">
+      <c r="I54" s="29">
         <f>G55</f>
         <v>0.15</v>
       </c>
-      <c r="J54" s="63" t="s">
+      <c r="J54" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="K54" s="64">
+      <c r="K54" s="60">
         <f>G55</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F55" s="28" t="s">
+      <c r="F55" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="29">
         <v>0.15</v>
       </c>
-      <c r="H55" s="28" t="s">
+      <c r="H55" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="I55" s="31">
+      <c r="I55" s="29">
         <f>G56</f>
         <v>0.1</v>
       </c>
-      <c r="J55" s="28" t="s">
+      <c r="J55" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="K55" s="31">
+      <c r="K55" s="29">
         <f>G56</f>
         <v>0.1</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F56" s="28" t="s">
+      <c r="F56" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="29">
         <v>0.1</v>
       </c>
-      <c r="H56" s="28" t="s">
+      <c r="H56" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="I56" s="31">
+      <c r="I56" s="29">
         <f>G57</f>
         <v>0.09</v>
       </c>
-      <c r="J56" s="28" t="s">
+      <c r="J56" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="K56" s="31">
+      <c r="K56" s="29">
         <f>G57/2</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F57" s="28" t="s">
+      <c r="F57" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="29">
         <v>0.09</v>
       </c>
-      <c r="H57" s="28" t="s">
+      <c r="H57" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="I57" s="31">
+      <c r="I57" s="29">
         <f>G61+G59</f>
         <v>0.09</v>
       </c>
-      <c r="J57" s="28" t="s">
+      <c r="J57" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="K57" s="31">
+      <c r="K57" s="29">
         <f>G57/2</f>
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F58" s="28" t="s">
+      <c r="F58" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G58" s="31">
+      <c r="G58" s="29">
         <v>0.08</v>
       </c>
-      <c r="H58" s="28" t="s">
+      <c r="H58" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I58" s="31">
+      <c r="I58" s="29">
         <f>G58</f>
         <v>0.08</v>
       </c>
-      <c r="J58" s="28" t="s">
+      <c r="J58" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="K58" s="31">
+      <c r="K58" s="29">
         <f>G58</f>
         <v>0.08</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F59" s="28" t="s">
+      <c r="F59" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G59" s="31">
+      <c r="G59" s="29">
         <v>0.06</v>
       </c>
-      <c r="H59" s="28" t="s">
+      <c r="H59" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="I59" s="31">
+      <c r="I59" s="29">
         <f>G54</f>
         <v>0.39</v>
       </c>
-      <c r="J59" s="28" t="s">
+      <c r="J59" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="K59" s="31">
+      <c r="K59" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F60" s="28" t="s">
+      <c r="F60" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G60" s="31">
+      <c r="G60" s="29">
         <v>0.06</v>
       </c>
-      <c r="H60" s="28" t="s">
+      <c r="H60" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="I60" s="31">
+      <c r="I60" s="29">
         <f>G63</f>
         <v>0.01</v>
       </c>
-      <c r="J60" s="28" t="s">
+      <c r="J60" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="K60" s="31">
+      <c r="K60" s="29">
         <f>G54</f>
         <v>0.39</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F61" s="28" t="s">
+      <c r="F61" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="31">
+      <c r="G61" s="29">
         <v>0.03</v>
       </c>
-      <c r="H61" s="28" t="s">
+      <c r="H61" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="I61" s="31">
+      <c r="I61" s="29">
         <f>G62</f>
         <v>0.03</v>
       </c>
-      <c r="J61" s="28" t="s">
+      <c r="J61" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K61" s="31">
+      <c r="K61" s="29">
         <f>G59</f>
         <v>0.06</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F62" s="28" t="s">
+      <c r="F62" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G62" s="31">
+      <c r="G62" s="29">
         <v>0.03</v>
       </c>
-      <c r="H62" s="28" t="s">
+      <c r="H62" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="I62" s="31">
+      <c r="I62" s="29">
         <f>G60</f>
         <v>0.06</v>
       </c>
-      <c r="J62" s="28" t="s">
+      <c r="J62" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="K62" s="65">
+      <c r="K62" s="61">
         <f>1-SUM(K54:K61)</f>
         <v>0.12999999999999989</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F63" s="30" t="s">
+      <c r="F63" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G63" s="29">
+      <c r="G63" s="27">
         <v>0.01</v>
       </c>
-      <c r="H63" s="30" t="s">
+      <c r="H63" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="I63" s="29">
-        <v>0</v>
-      </c>
-      <c r="J63" s="30"/>
-      <c r="K63" s="29"/>
+      <c r="I63" s="27">
+        <v>0</v>
+      </c>
+      <c r="J63" s="28"/>
+      <c r="K63" s="27"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="F64" s="66" t="s">
+      <c r="F64" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H64" s="35" t="s">
+      <c r="H64" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="J64" s="35" t="s">
+      <c r="J64" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F65" s="35"/>
-      <c r="H65" s="35" t="s">
+      <c r="F65" s="33"/>
+      <c r="H65" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="J65" s="35" t="s">
+      <c r="J65" s="33" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F66" s="35"/>
-      <c r="H66" s="35" t="s">
+      <c r="F66" s="33"/>
+      <c r="H66" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="J66" s="35"/>
+      <c r="J66" s="33"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="35"/>
+      <c r="F67" s="33"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="33"/>
+      <c r="I67" s="33"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F73" s="35" t="s">
+      <c r="F73" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="35"/>
+      <c r="G73" s="33"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F74" s="33" t="s">
+      <c r="F74" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="G74" s="34"/>
-      <c r="H74" s="61" t="s">
+      <c r="G74" s="32"/>
+      <c r="H74" s="57" t="s">
         <v>152</v>
       </c>
-      <c r="I74" s="62"/>
+      <c r="I74" s="58"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F75" s="28" t="s">
+      <c r="F75" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G75" s="31">
+      <c r="G75" s="29">
         <v>0.22</v>
       </c>
-      <c r="H75" s="63" t="s">
+      <c r="H75" s="59" t="s">
         <v>153</v>
       </c>
-      <c r="I75" s="64">
+      <c r="I75" s="60">
         <f>G76</f>
         <v>0.15</v>
       </c>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F76" s="28" t="s">
+      <c r="F76" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="G76" s="31">
+      <c r="G76" s="29">
         <v>0.15</v>
       </c>
-      <c r="H76" s="28" t="s">
+      <c r="H76" s="26" t="s">
         <v>154</v>
       </c>
-      <c r="I76" s="31">
+      <c r="I76" s="29">
         <f>G77</f>
         <v>0.23</v>
       </c>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F77" s="28" t="s">
+      <c r="F77" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="G77" s="31">
+      <c r="G77" s="29">
         <v>0.23</v>
       </c>
-      <c r="H77" s="28" t="s">
+      <c r="H77" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="I77" s="31">
+      <c r="I77" s="29">
         <f>G78/2</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F78" s="28" t="s">
+      <c r="F78" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="G78" s="31">
+      <c r="G78" s="29">
         <v>0.08</v>
       </c>
-      <c r="H78" s="28" t="s">
+      <c r="H78" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="I78" s="31">
+      <c r="I78" s="29">
         <f>G78/2</f>
         <v>0.04</v>
       </c>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C79" s="28"/>
-      <c r="D79" s="67"/>
-      <c r="F79" s="28" t="s">
+      <c r="C79" s="26"/>
+      <c r="F79" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="G79" s="31">
+      <c r="G79" s="29">
         <v>0.03</v>
       </c>
-      <c r="H79" s="28" t="s">
+      <c r="H79" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I79" s="31">
+      <c r="I79" s="29">
         <f>G79</f>
         <v>0.03</v>
       </c>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="F80" s="28" t="s">
+      <c r="F80" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="G80" s="31">
+      <c r="G80" s="29">
         <v>0.18</v>
       </c>
-      <c r="H80" s="28" t="s">
+      <c r="H80" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="I80" s="31">
+      <c r="I80" s="29">
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="G81" s="31">
+      <c r="G81" s="29">
         <v>0.06</v>
       </c>
-      <c r="H81" s="28" t="s">
+      <c r="H81" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="I81" s="31">
+      <c r="I81" s="29">
         <f>G75</f>
         <v>0.22</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F82" s="28" t="s">
+      <c r="F82" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="G82" s="31">
+      <c r="G82" s="29">
         <v>0.02</v>
       </c>
-      <c r="H82" s="28" t="s">
+      <c r="H82" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="I82" s="31">
+      <c r="I82" s="29">
         <f>G80</f>
         <v>0.18</v>
       </c>
-      <c r="J82" s="35"/>
+      <c r="J82" s="33"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F83" s="28" t="s">
+      <c r="F83" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="G83" s="31">
+      <c r="G83" s="29">
         <v>0.02</v>
       </c>
-      <c r="H83" s="28" t="s">
+      <c r="H83" s="26" t="s">
         <v>155</v>
       </c>
-      <c r="I83" s="65">
+      <c r="I83" s="61">
         <f>1-SUM(I75:I82)</f>
         <v>0.1100000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="G84" s="29">
+      <c r="G84" s="27">
         <v>0.01</v>
       </c>
-      <c r="H84" s="30"/>
-      <c r="I84" s="29"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="27"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G85" s="66" t="s">
+      <c r="G85" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="H85" s="35" t="s">
+      <c r="H85" s="33" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="F86" s="35"/>
-      <c r="G86" s="27">
+      <c r="F86" s="33"/>
+      <c r="G86" s="25">
         <f>SUM(G75:G84)</f>
         <v>1</v>
       </c>
-      <c r="H86" s="35" t="s">
+      <c r="H86" s="33" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A93" s="68" t="s">
+      <c r="A93" s="63" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A94" s="35" t="s">
+      <c r="A94" s="33" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B95" s="60" t="s">
+      <c r="B95" s="56" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B96" s="60" t="s">
+      <c r="B96" s="56" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="60" t="s">
+      <c r="B97" s="56" t="s">
         <v>164</v>
       </c>
     </row>
@@ -4384,7 +5078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C117"/>
   <sheetViews>
@@ -4815,7 +5509,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0D063E7-D13F-7A41-80DB-197FE8EEB724}">
   <dimension ref="A1:AM61"/>
   <sheetViews>
@@ -11379,7 +12073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBC703D0-1A8A-4548-A09E-BBADF50BAB5C}">
   <dimension ref="A1:W37"/>
   <sheetViews>

--- a/source_analyses/nl/2019/11_area/11_area_insulation_typical_pv_and_heat.xlsx
+++ b/source_analyses/nl/2019/11_area/11_area_insulation_typical_pv_and_heat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/source_analyses/nl/2019/11_area/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Github/etdataset/source_analyses/nl/2019/11_area/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94F58551-C167-2141-97DF-713C3EB79D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A0598D-6790-CB49-A43E-9FDB3B3E0D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15220" yWindow="-28300" windowWidth="25600" windowHeight="27140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15220" yWindow="-28300" windowWidth="25600" windowHeight="27140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data - households (new)" sheetId="9" r:id="rId1"/>
@@ -1842,7 +1842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1682E34D-6A17-F44E-819A-5DB2D1821827}">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
@@ -3833,8 +3833,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA75A014-DE88-B14B-8D8F-6EBDB4688A66}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3884,7 +3884,8 @@
         <v>170</v>
       </c>
       <c r="B6">
-        <v>293.627703981492</v>
+        <f>B2/B5</f>
+        <v>293.62770398149252</v>
       </c>
     </row>
   </sheetData>
